--- a/biology/Botanique/Cornouiller_odorant/Cornouiller_odorant.xlsx
+++ b/biology/Botanique/Cornouiller_odorant/Cornouiller_odorant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cornouiller odorant (Cornus amomum Mill.) est une espèce d'arbustes caducs originaire du nord-est des États-Unis et du sud-ouest du Québec.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut atteindre une taille de 3 × 3 m et est rustique jusqu'en zone 5. Son feuillage est vert clair et ses rameaux de couleur rouge. 
 Cette espèce affectionne les sols humides, berges et marécages aussi bien à l'ombre qu'en pleine lumière. Ses fruits sont des drupes blanches d'environ 8 mm de diamètre qui deviennent bleues à maturité.
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (9 déc. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (9 déc. 2011) :
 sous-espèce Cornus amomum subsp. amomum
 sous-espèce Cornus amomum subsp. obliqua (Raf.) J.S.Wilson (1965)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Swida amomum (Mill.) Small
 Thelycrania amomum (Mill.) Pojark.</t>
@@ -606,7 +624,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont comestibles mais sans grand intérêt gustatif. 
 Les tribus amérindiennes du Middlewest le nommaient Kinnikinnik et fumaient son écorce en mélange avec du tabac et des feuilles de busserole.
